--- a/DOC/WBS/スケジュール.xlsx
+++ b/DOC/WBS/スケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DBD7E1-2D10-449C-A183-BF0D13DB12F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2FC6A4-E7B1-48D7-8F6C-5FD412A407D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="360" windowWidth="25290" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>内容</t>
   </si>
@@ -197,6 +197,26 @@
   </si>
   <si>
     <t>ユ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　  Service及びDB操作</t>
+    <rPh sb="10" eb="11">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      画面UI（HTML、コントロール層）</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ソウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -336,9 +356,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +367,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,16 +446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -450,8 +470,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6391275" y="485775"/>
-          <a:ext cx="0" cy="7143750"/>
+          <a:off x="7229475" y="466725"/>
+          <a:ext cx="0" cy="7096125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -483,13 +503,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -537,13 +557,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -561,6 +581,168 @@
         <a:xfrm flipV="1">
           <a:off x="5734050" y="4848225"/>
           <a:ext cx="1276350" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396A9B66-460F-4BD7-A220-5A95AFAB51CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="6848476"/>
+          <a:ext cx="809625" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF7F103-C3BC-4FF3-A7B2-622A22EA7C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8458200" y="4600575"/>
+          <a:ext cx="800100" cy="9527"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC6A15D-0D69-46BA-96D3-734BA1766877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8429625" y="2457450"/>
+          <a:ext cx="800100" cy="9527"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -848,10 +1030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AW25"/>
+  <dimension ref="B2:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -859,57 +1044,54 @@
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="4.625" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="3.25" customWidth="1"/>
-    <col min="10" max="54" width="3.625" customWidth="1"/>
+    <col min="10" max="51" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -953,77 +1135,68 @@
         <v>6</v>
       </c>
       <c r="P3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R3" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S3" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T3" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U3" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V3" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W3" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X3" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z3" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA3" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AC3" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AD3" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF3" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH3" s="1">
-        <v>25</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>26</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>27</v>
-      </c>
-      <c r="AK3" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:37" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:34" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1061,15 +1234,12 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1103,15 +1273,12 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1147,15 +1314,12 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1191,15 +1355,12 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1235,15 +1396,12 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1279,17 +1437,14 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>25</v>
@@ -1323,17 +1478,14 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
@@ -1367,20 +1519,19 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1409,22 +1560,19 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1453,21 +1601,16 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-    </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1497,22 +1640,19 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1541,22 +1681,19 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-    </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6" t="s">
-        <v>3</v>
+      <c r="C16" s="11"/>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1585,17 +1722,14 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
@@ -1629,17 +1763,14 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -1673,20 +1804,19 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1715,22 +1845,19 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1759,22 +1886,19 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7" t="s">
-        <v>20</v>
+      <c r="C21" s="11"/>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1803,20 +1927,17 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1847,22 +1968,17 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1891,22 +2007,19 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1935,22 +2048,19 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="6" t="s">
-        <v>4</v>
+      <c r="C25" s="11"/>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1979,14 +2089,257 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="2:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <v>26</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
+        <v>27</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C4:C25"/>
-    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="C4:C31"/>
+    <mergeCell ref="J2:AH2"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>

--- a/DOC/WBS/スケジュール.xlsx
+++ b/DOC/WBS/スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2FC6A4-E7B1-48D7-8F6C-5FD412A407D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B379DEDD-B755-47DA-9D77-68D2A9316080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="25605" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>内容</t>
   </si>
@@ -216,6 +216,34 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -328,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,6 +399,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -394,13 +425,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -454,7 +485,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -503,13 +534,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -557,13 +588,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -611,14 +642,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -632,9 +663,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8439150" y="6848476"/>
-          <a:ext cx="809625" cy="9524"/>
+        <a:xfrm flipV="1">
+          <a:off x="8439150" y="6762750"/>
+          <a:ext cx="857250" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -665,13 +696,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -687,8 +718,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8458200" y="4600575"/>
-          <a:ext cx="800100" cy="9527"/>
+          <a:off x="8458200" y="4848225"/>
+          <a:ext cx="790575" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -719,14 +750,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -740,9 +771,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8429625" y="2457450"/>
-          <a:ext cx="800100" cy="9527"/>
+        <a:xfrm>
+          <a:off x="8429625" y="2705102"/>
+          <a:ext cx="828675" cy="9523"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1030,13 +1061,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AH31"/>
+  <dimension ref="B2:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
+      <selection pane="bottomRight" activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1050,10 +1081,10 @@
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="3.25" customWidth="1"/>
-    <col min="10" max="51" width="3.625" customWidth="1"/>
+    <col min="10" max="41" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1080,18 +1111,8 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1141,111 +1162,89 @@
         <v>11</v>
       </c>
       <c r="R3" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S3" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T3" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U3" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V3" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="W3" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="X3" s="1">
-        <v>18</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>22</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>23</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>24</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>26</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>27</v>
-      </c>
-      <c r="AH3" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.4">
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1263,29 +1262,17 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5"/>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1304,27 +1291,17 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="1"/>
@@ -1345,29 +1322,19 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1386,24 +1353,14 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
@@ -1427,24 +1384,14 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>25</v>
@@ -1468,24 +1415,14 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
@@ -1509,24 +1446,14 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>25</v>
@@ -1550,24 +1477,14 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>25</v>
@@ -1591,27 +1508,19 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1630,28 +1539,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1671,27 +1568,17 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
@@ -1712,29 +1599,19 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1753,24 +1630,14 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -1794,24 +1661,14 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>26</v>
@@ -1835,24 +1692,14 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
@@ -1876,24 +1723,14 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -1917,24 +1754,14 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>26</v>
@@ -1958,27 +1785,19 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1997,28 +1816,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2038,27 +1845,17 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="7" t="s">
-        <v>20</v>
+      <c r="D25" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
@@ -2079,29 +1876,19 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="6" t="s">
-        <v>5</v>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2120,24 +1907,14 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>27</v>
@@ -2161,24 +1938,14 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-    </row>
-    <row r="28" spans="2:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>27</v>
@@ -2202,24 +1969,14 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>27</v>
@@ -2243,24 +2000,14 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>27</v>
@@ -2284,24 +2031,14 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <v>28</v>
-      </c>
-      <c r="C31" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="11"/>
       <c r="D31" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>27</v>
@@ -2325,21 +2062,42 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C4:C31"/>
-    <mergeCell ref="J2:AH2"/>
+    <mergeCell ref="C5:C32"/>
+    <mergeCell ref="J2:X2"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>

--- a/DOC/WBS/スケジュール.xlsx
+++ b/DOC/WBS/スケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B379DEDD-B755-47DA-9D77-68D2A9316080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA49493C-030B-4BD8-B308-9A709DAB41A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="25605" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="165" windowWidth="25050" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>内容</t>
   </si>
@@ -246,6 +246,79 @@
       <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EMSM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約管理機能</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本給_マスタ機能</t>
+    <rPh sb="0" eb="3">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テ-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
   </si>
 </sst>
 </file>
@@ -282,15 +355,21 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,13 +429,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +479,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -399,8 +497,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,13 +553,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -485,7 +613,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -534,13 +662,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -588,13 +716,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -640,16 +768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -664,8 +792,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8439150" y="6762750"/>
-          <a:ext cx="857250" cy="1"/>
+          <a:off x="4762500" y="1076325"/>
+          <a:ext cx="2047875" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -696,13 +824,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -750,13 +878,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>123827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -774,6 +902,60 @@
         <a:xfrm>
           <a:off x="8429625" y="2705102"/>
           <a:ext cx="828675" cy="9523"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4A0285-6B4B-43FF-A509-83F64634C1F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4772025" y="1314450"/>
+          <a:ext cx="2047875" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1061,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:X32"/>
+  <dimension ref="B2:BM35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="33" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD34" sqref="AD34"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1075,205 +1257,525 @@
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="4.625" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="9" width="3.25" customWidth="1"/>
-    <col min="10" max="41" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="5.25" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" hidden="1" customWidth="1"/>
+    <col min="10" max="24" width="3.625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="28" width="3.625" style="23" customWidth="1"/>
+    <col min="29" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="3.625" style="23" customWidth="1"/>
+    <col min="35" max="35" width="3.625" customWidth="1"/>
+    <col min="36" max="40" width="3.625" style="23" customWidth="1"/>
+    <col min="41" max="65" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:65" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:65" x14ac:dyDescent="0.4">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:65" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M4" s="1">
         <v>4</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N4" s="1">
         <v>5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O4" s="1">
         <v>6</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P4" s="1">
         <v>8</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q4" s="1">
         <v>11</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R4" s="1">
         <v>13</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S4" s="1">
         <v>15</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T4" s="1">
         <v>18</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U4" s="1">
         <v>20</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V4" s="1">
         <v>22</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W4" s="1">
         <v>26</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X4" s="1">
         <v>28</v>
       </c>
+      <c r="Y4" s="17">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>29</v>
+      </c>
+      <c r="AH4" s="22">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="22">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="22">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="22">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="22">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>6</v>
+      </c>
+      <c r="AP4" s="17">
+        <v>7</v>
+      </c>
+      <c r="AQ4" s="17">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="17">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="17">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="17">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>12</v>
+      </c>
+      <c r="AV4" s="17">
+        <v>13</v>
+      </c>
+      <c r="AW4" s="17">
+        <v>14</v>
+      </c>
+      <c r="AX4" s="17">
+        <v>15</v>
+      </c>
+      <c r="AY4" s="17">
+        <v>16</v>
+      </c>
+      <c r="AZ4" s="17">
+        <v>17</v>
+      </c>
+      <c r="BA4" s="17">
+        <v>18</v>
+      </c>
+      <c r="BB4" s="17">
+        <v>19</v>
+      </c>
+      <c r="BC4" s="17">
+        <v>20</v>
+      </c>
+      <c r="BD4" s="17">
+        <v>21</v>
+      </c>
+      <c r="BE4" s="17">
+        <v>22</v>
+      </c>
+      <c r="BF4" s="17">
+        <v>23</v>
+      </c>
+      <c r="BG4" s="17">
+        <v>24</v>
+      </c>
+      <c r="BH4" s="17">
+        <v>25</v>
+      </c>
+      <c r="BI4" s="17">
+        <v>26</v>
+      </c>
+      <c r="BJ4" s="17">
+        <v>27</v>
+      </c>
+      <c r="BK4" s="17">
+        <v>28</v>
+      </c>
+      <c r="BL4" s="17">
+        <v>29</v>
+      </c>
+      <c r="BM4" s="17">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B4" s="6"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6" t="s">
+    <row r="5" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="O5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:65" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1291,19 +1793,47 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1322,17 +1852,47 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="1"/>
@@ -1353,19 +1913,49 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1384,14 +1974,44 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="13"/>
       <c r="D10" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>25</v>
@@ -1415,14 +2035,44 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>25</v>
@@ -1446,14 +2096,44 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="13"/>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>25</v>
@@ -1477,14 +2157,44 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="13"/>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>25</v>
@@ -1508,14 +2218,44 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>25</v>
@@ -1539,17 +2279,49 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1568,18 +2340,46 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1599,17 +2399,47 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="1"/>
@@ -1630,19 +2460,49 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1661,14 +2521,44 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>26</v>
@@ -1692,14 +2582,44 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="13"/>
       <c r="D20" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
@@ -1723,14 +2643,44 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="13"/>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -1754,14 +2704,44 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="13"/>
       <c r="D22" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>26</v>
@@ -1785,14 +2765,44 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="13"/>
       <c r="D23" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>26</v>
@@ -1816,17 +2826,49 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1845,18 +2887,46 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
+      <c r="AJ24" s="22"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <v>21</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1876,17 +2946,47 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <v>22</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
@@ -1907,19 +3007,49 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
+      <c r="AJ26" s="22"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <v>23</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="6" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1938,14 +3068,44 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <v>24</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>27</v>
@@ -1969,14 +3129,44 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
     </row>
-    <row r="29" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>27</v>
@@ -2000,14 +3190,44 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:65" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <v>26</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>27</v>
@@ -2031,14 +3251,44 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <v>27</v>
-      </c>
-      <c r="C31" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>27</v>
@@ -2062,14 +3312,44 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <v>28</v>
-      </c>
-      <c r="C32" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>27</v>
@@ -2093,12 +3373,248 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+    </row>
+    <row r="33" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="18">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+    </row>
+    <row r="34" spans="2:65" x14ac:dyDescent="0.4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+    </row>
+    <row r="35" spans="2:65" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C5:C32"/>
+  <mergeCells count="6">
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C6:C33"/>
     <mergeCell ref="J2:X2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="AJ2:BM2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/WBS/スケジュール.xlsx
+++ b/DOC/WBS/スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA49493C-030B-4BD8-B308-9A709DAB41A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F86C6A-1AE9-4454-969F-AF82ED4C8DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="165" windowWidth="25050" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25050" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>内容</t>
   </si>
@@ -252,19 +252,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>契約管理機能</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>基本給_マスタ機能</t>
     <rPh sb="0" eb="3">
       <t>キホンキュウ</t>
@@ -319,6 +306,70 @@
   </si>
   <si>
     <t>水</t>
+  </si>
+  <si>
+    <t>厚生保険料_マスタ管理</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>厚生子育徴収_マスタ管理</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雇用保険_マスタ管理</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>諸税_マスタ管理</t>
+    <rPh sb="0" eb="2">
+      <t>ショゼイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>給料管理</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経費管理</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>契約情報管理</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -344,6 +395,7 @@
     <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -369,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -417,23 +469,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -448,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,21 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -508,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -521,14 +542,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,13 +1276,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:BM35"/>
+  <dimension ref="B2:BL41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="33" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1266,88 +1299,85 @@
     <col min="10" max="24" width="3.625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
     <col min="26" max="26" width="3.625" customWidth="1"/>
-    <col min="27" max="28" width="3.625" style="23" customWidth="1"/>
-    <col min="29" max="33" width="3.625" customWidth="1"/>
-    <col min="34" max="34" width="3.625" style="23" customWidth="1"/>
-    <col min="35" max="35" width="3.625" customWidth="1"/>
-    <col min="36" max="40" width="3.625" style="23" customWidth="1"/>
-    <col min="41" max="65" width="3.625" customWidth="1"/>
+    <col min="27" max="28" width="3.625" style="17" customWidth="1"/>
+    <col min="29" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="39" width="3.625" style="17" customWidth="1"/>
+    <col min="40" max="64" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:65" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:64" x14ac:dyDescent="0.4">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
     </row>
-    <row r="3" spans="2:65" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.4">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1371,38 +1401,40 @@
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="AA3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AE3" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="AF3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AH3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" s="26"/>
+      <c r="AI3" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="AJ3" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="AK3" s="10" t="s">
         <v>45</v>
@@ -1411,10 +1443,10 @@
         <v>46</v>
       </c>
       <c r="AM3" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AN3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>42</v>
@@ -1432,10 +1464,10 @@
         <v>46</v>
       </c>
       <c r="AT3" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AV3" s="10" t="s">
         <v>42</v>
@@ -1453,10 +1485,10 @@
         <v>46</v>
       </c>
       <c r="BA3" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="BB3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BC3" s="10" t="s">
         <v>42</v>
@@ -1474,10 +1506,10 @@
         <v>46</v>
       </c>
       <c r="BH3" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="BI3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BJ3" s="10" t="s">
         <v>42</v>
@@ -1488,11 +1520,8 @@
       <c r="BL3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BM3" s="10" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="4" spans="2:65" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1562,129 +1591,128 @@
       <c r="X4" s="1">
         <v>28</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="12">
         <v>21</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="12">
         <v>22</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="16">
         <v>23</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AB4" s="16">
         <v>24</v>
       </c>
-      <c r="AC4" s="17">
+      <c r="AC4" s="12">
         <v>25</v>
       </c>
-      <c r="AD4" s="17">
+      <c r="AD4" s="12">
         <v>26</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AE4" s="12">
         <v>27</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="AF4" s="12">
         <v>28</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="16">
         <v>29</v>
       </c>
-      <c r="AH4" s="22">
+      <c r="AH4" s="16">
         <v>30</v>
       </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="22">
+      <c r="AI4" s="16">
         <v>1</v>
       </c>
-      <c r="AK4" s="22">
+      <c r="AJ4" s="16">
         <v>2</v>
       </c>
-      <c r="AL4" s="22">
+      <c r="AK4" s="16">
         <v>3</v>
       </c>
-      <c r="AM4" s="22">
+      <c r="AL4" s="16">
         <v>4</v>
       </c>
-      <c r="AN4" s="22">
+      <c r="AM4" s="16">
         <v>5</v>
       </c>
-      <c r="AO4" s="17">
+      <c r="AN4" s="12">
         <v>6</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="AO4" s="12">
         <v>7</v>
       </c>
-      <c r="AQ4" s="17">
+      <c r="AP4" s="12">
         <v>8</v>
       </c>
-      <c r="AR4" s="17">
+      <c r="AQ4" s="12">
         <v>9</v>
       </c>
-      <c r="AS4" s="17">
+      <c r="AR4" s="12">
         <v>10</v>
       </c>
-      <c r="AT4" s="17">
+      <c r="AS4" s="12">
         <v>11</v>
       </c>
-      <c r="AU4" s="17">
+      <c r="AT4" s="12">
         <v>12</v>
       </c>
-      <c r="AV4" s="17">
+      <c r="AU4" s="12">
         <v>13</v>
       </c>
-      <c r="AW4" s="17">
+      <c r="AV4" s="12">
         <v>14</v>
       </c>
-      <c r="AX4" s="17">
+      <c r="AW4" s="12">
         <v>15</v>
       </c>
-      <c r="AY4" s="17">
+      <c r="AX4" s="12">
         <v>16</v>
       </c>
-      <c r="AZ4" s="17">
+      <c r="AY4" s="12">
         <v>17</v>
       </c>
-      <c r="BA4" s="17">
+      <c r="AZ4" s="12">
         <v>18</v>
       </c>
-      <c r="BB4" s="17">
+      <c r="BA4" s="12">
         <v>19</v>
       </c>
-      <c r="BC4" s="17">
+      <c r="BB4" s="12">
         <v>20</v>
       </c>
-      <c r="BD4" s="17">
+      <c r="BC4" s="12">
         <v>21</v>
       </c>
-      <c r="BE4" s="17">
+      <c r="BD4" s="12">
         <v>22</v>
       </c>
-      <c r="BF4" s="17">
+      <c r="BE4" s="12">
         <v>23</v>
       </c>
-      <c r="BG4" s="17">
+      <c r="BF4" s="12">
         <v>24</v>
       </c>
-      <c r="BH4" s="17">
+      <c r="BG4" s="12">
         <v>25</v>
       </c>
-      <c r="BI4" s="17">
+      <c r="BH4" s="12">
         <v>26</v>
       </c>
-      <c r="BJ4" s="17">
+      <c r="BI4" s="12">
         <v>27</v>
       </c>
-      <c r="BK4" s="17">
+      <c r="BJ4" s="12">
         <v>28</v>
       </c>
-      <c r="BL4" s="17">
+      <c r="BK4" s="12">
         <v>29</v>
       </c>
-      <c r="BM4" s="17">
+      <c r="BL4" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
       <c r="C5" s="11"/>
       <c r="D5" s="1"/>
@@ -1730,11 +1758,12 @@
       <c r="X5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
@@ -1759,13 +1788,12 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
     </row>
-    <row r="6" spans="2:65" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:64" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1793,11 +1821,12 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -1822,13 +1851,12 @@
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
     </row>
-    <row r="7" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1852,11 +1880,12 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1881,13 +1910,12 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
     </row>
-    <row r="8" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1913,11 +1941,12 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1942,13 +1971,12 @@
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
     </row>
-    <row r="9" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1974,11 +2002,12 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
@@ -2003,13 +2032,12 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
     </row>
-    <row r="10" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2035,11 +2063,12 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -2064,13 +2093,12 @@
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
     </row>
-    <row r="11" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2096,11 +2124,12 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -2125,13 +2154,12 @@
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
     </row>
-    <row r="12" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
@@ -2157,11 +2185,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -2186,13 +2215,12 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
     </row>
-    <row r="13" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2218,11 +2246,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -2247,13 +2276,12 @@
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
     </row>
-    <row r="14" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
@@ -2279,11 +2307,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="22"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -2308,13 +2337,12 @@
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
     </row>
-    <row r="15" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2340,11 +2368,12 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -2369,13 +2398,12 @@
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
     </row>
-    <row r="16" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2399,11 +2427,12 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -2428,13 +2457,12 @@
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
     </row>
-    <row r="17" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
@@ -2460,11 +2488,12 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
@@ -2489,13 +2518,12 @@
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
     </row>
-    <row r="18" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
@@ -2521,11 +2549,12 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -2550,13 +2579,12 @@
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
     </row>
-    <row r="19" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
@@ -2582,11 +2610,12 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -2611,13 +2640,12 @@
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
     </row>
-    <row r="20" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
@@ -2643,11 +2671,12 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -2672,13 +2701,12 @@
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
     </row>
-    <row r="21" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="6" t="s">
         <v>29</v>
       </c>
@@ -2704,11 +2732,12 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -2733,13 +2762,12 @@
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
     </row>
-    <row r="22" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="6" t="s">
         <v>28</v>
       </c>
@@ -2765,11 +2793,12 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -2794,13 +2823,12 @@
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
     </row>
-    <row r="23" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2826,11 +2854,12 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
@@ -2855,13 +2884,12 @@
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
     </row>
-    <row r="24" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>19</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2887,11 +2915,12 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -2916,13 +2945,12 @@
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
     </row>
-    <row r="25" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>20</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
         <v>18</v>
       </c>
@@ -2946,11 +2974,12 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="22"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
@@ -2975,13 +3004,12 @@
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
     </row>
-    <row r="26" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>21</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
@@ -3007,11 +3035,12 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -3036,13 +3065,12 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
     </row>
-    <row r="27" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="7" t="s">
         <v>20</v>
       </c>
@@ -3068,11 +3096,12 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
@@ -3097,13 +3126,12 @@
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1"/>
-      <c r="BM27" s="1"/>
     </row>
-    <row r="28" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>23</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="6" t="s">
         <v>5</v>
       </c>
@@ -3129,11 +3157,12 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
@@ -3158,13 +3187,12 @@
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
       <c r="BL28" s="1"/>
-      <c r="BM28" s="1"/>
     </row>
-    <row r="29" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="6" t="s">
         <v>3</v>
       </c>
@@ -3190,11 +3218,12 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
@@ -3219,13 +3248,12 @@
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
       <c r="BL29" s="1"/>
-      <c r="BM29" s="1"/>
     </row>
-    <row r="30" spans="2:65" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:64" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
@@ -3251,11 +3279,12 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
@@ -3280,13 +3309,12 @@
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
     </row>
-    <row r="31" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>26</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="6" t="s">
         <v>28</v>
       </c>
@@ -3312,11 +3340,12 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="22"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
@@ -3341,13 +3370,12 @@
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
     </row>
-    <row r="32" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>27</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="6" t="s">
         <v>21</v>
       </c>
@@ -3373,11 +3401,12 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
@@ -3402,43 +3431,43 @@
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
       <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
     </row>
-    <row r="33" spans="2:65" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="18">
+    <row r="33" spans="2:64" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="13">
         <v>28</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
@@ -3463,18 +3492,17 @@
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
       <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
     </row>
-    <row r="34" spans="2:65" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:64" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>37</v>
+      <c r="D34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3497,20 +3525,20 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="22"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="22"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
@@ -3535,15 +3563,14 @@
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
       <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
     </row>
-    <row r="35" spans="2:65" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:64" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="1"/>
@@ -3567,20 +3594,20 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="25"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
-      <c r="AM35" s="22"/>
-      <c r="AN35" s="22"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
@@ -3605,16 +3632,417 @@
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
       <c r="BL35" s="1"/>
-      <c r="BM35" s="1"/>
+    </row>
+    <row r="36" spans="2:64" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+    </row>
+    <row r="37" spans="2:64" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+    </row>
+    <row r="38" spans="2:64" x14ac:dyDescent="0.4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+    </row>
+    <row r="39" spans="2:64" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+    </row>
+    <row r="40" spans="2:64" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+    </row>
+    <row r="41" spans="2:64" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="AI2:BL2"/>
+    <mergeCell ref="C34:C41"/>
     <mergeCell ref="C6:C33"/>
     <mergeCell ref="J2:X2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="AJ2:BM2"/>
+    <mergeCell ref="Y2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
